--- a/Assignment 2/results.xlsx
+++ b/Assignment 2/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9691281C-F626-422A-85E4-B9052F278920}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E187D2D-6E7E-40EC-9320-700BF308F4B1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Epoch</t>
   </si>
@@ -96,13 +96,27 @@
   <si>
     <t>Id</t>
   </si>
+  <si>
+    <t>Default Model</t>
+  </si>
+  <si>
+    <t>Test Loss</t>
+  </si>
+  <si>
+    <t>Test Accuracy</t>
+  </si>
+  <si>
+    <t>2,2,3,4,5,6,7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -137,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +161,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -182,7 +226,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -198,6 +257,8697 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Accuracy with Epoch 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Train Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$D$28:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$28:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.65034000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68533999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64954000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57311999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50697999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49653999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E88-4F77-8C3B-133DA5A5E9B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$D$28:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$H$28:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.64039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49580000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E88-4F77-8C3B-133DA5A5E9B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1621381328"/>
+        <c:axId val="1621405872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1621381328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Batch Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1621405872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1621405872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1621381328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Accuracy with Epoch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> 25</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Train Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$D$35:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$35:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.55718000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73326000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68535999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64514000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FB4-4246-A899-F9038A04B461}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$D$35:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$H$35:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.54949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63770000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FB4-4246-A899-F9038A04B461}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1751718608"/>
+        <c:axId val="1750034256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1751718608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750034256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1750034256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751718608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Accuracy with Epoch 50</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Train Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$D$41:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$41:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.31888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67208000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75668000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78291999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76507999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71787999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F64-433D-A350-D6537215537C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$D$41:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$H$41:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32029999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76990000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70109999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F64-433D-A350-D6537215537C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1666402000"/>
+        <c:axId val="1657573552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1666402000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Batch-Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1657573552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1657573552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1666402000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Batch-Size=8 &amp; Variable Epoch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$28,Tabelle1!$H$35,Tabelle1!$H$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.64039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32029999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD74-452A-BF93-C650030D6DF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1751720608"/>
+        <c:axId val="1750036752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1751720608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750036752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1750036752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751720608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Batch-Size=16 &amp; Variable Epoch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$29,Tabelle1!$H$36,Tabelle1!$H$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.67549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65680000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2714-4E17-B5B4-A44792BD1035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1492315328"/>
+        <c:axId val="1756326912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1492315328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756326912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1756326912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492315328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Batch-Size=32 &amp; Variable Epoch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$47,Tabelle1!$C$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$30,Tabelle1!$H$37,Tabelle1!$H$43,Tabelle1!$H$47,Tabelle1!$H$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74329999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A406-4F27-AC5F-571142A11DEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1622637296"/>
+        <c:axId val="1670264208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1622637296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1670264208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1670264208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622637296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Batch-Size=64 &amp; Variable Epoch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$47,Tabelle1!$C$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$31,Tabelle1!$H$38,Tabelle1!$H$44,Tabelle1!$H$48,Tabelle1!$H$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.61309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76990000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79020000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F82-4056-A034-90CE3F3FA79B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1764650832"/>
+        <c:axId val="1755957104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1764650832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1755957104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1755957104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1764650832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Highest Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Batch Size 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$48,Tabelle1!$C$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$28,Tabelle1!$H$35,Tabelle1!$H$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.64039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32029999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B73-416E-AC20-0604CA8DD561}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Batch Size 16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$48,Tabelle1!$C$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$29,Tabelle1!$H$36,Tabelle1!$H$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.67549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65680000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4B73-416E-AC20-0604CA8DD561}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Batch Size 32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$48,Tabelle1!$C$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$30,Tabelle1!$H$37,Tabelle1!$H$43,Tabelle1!$H$47,Tabelle1!$H$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74329999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4B73-416E-AC20-0604CA8DD561}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Batch Size 64</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$48,Tabelle1!$C$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$31,Tabelle1!$H$38,Tabelle1!$H$44,Tabelle1!$H$48,Tabelle1!$H$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.61309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76990000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79020000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4B73-416E-AC20-0604CA8DD561}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Batch Size 128</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$48,Tabelle1!$C$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$32,Tabelle1!$H$39,Tabelle1!$H$45,Tabelle1!$H$49)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.57020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78110000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4B73-416E-AC20-0604CA8DD561}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1764653632"/>
+        <c:axId val="1755958768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1764653632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1755958768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1755958768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1764653632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F667D331-A786-448D-B3A6-D34E8E58795F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1226820</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>830580</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9330E020-E3D4-4C7A-A386-5DCEF340FDF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F28F0F-7D0A-4706-BC8D-C3F88AA3496A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>967740</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B084EC-ACC2-4B78-BAEF-14AE32171482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C14930-6F1E-4656-AC77-AABEAB1AAAF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902B5D33-7689-4FFA-BFFC-C7F5E457145A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1234440</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35CBBA7-549E-45F3-99EA-08AF575CD480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59914E9F-0384-429C-9A32-3A2AF6704FB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,10 +9213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I37"/>
+  <dimension ref="A3:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,6 +9417,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -675,6 +9429,18 @@
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -683,10 +9449,26 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>32</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.69178166451454104</v>
+      </c>
+      <c r="H18">
+        <v>0.7772</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -736,215 +9518,664 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="8">
         <v>1</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="8">
         <v>10</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="8">
         <v>8</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="9">
         <v>1.0392768399810699</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="8">
         <v>0.65034000000000003</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="9">
         <v>1.0646022348403901</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="8">
         <v>0.64039999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="16">
         <v>2</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="16">
         <v>1</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="16">
         <v>10</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="16">
         <v>16</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="17">
         <v>0.91937890407562195</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="16">
         <v>0.68533999999999995</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="17">
         <v>0.95473508434295595</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="16">
         <v>0.67549999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="8">
         <v>3</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="8">
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="8">
         <v>32</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="9">
         <v>0.99621965934753398</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="8">
         <v>0.64954000000000001</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="9">
         <v>1.01435149230957</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="8">
         <v>0.64300000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="8">
         <v>4</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <v>10</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="8">
         <v>64</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="9">
         <v>1.0970533450317299</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="8">
         <v>0.62119999999999997</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="9">
         <v>1.1071527214050201</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="8">
         <v>0.61309999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="8">
         <v>5</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
         <v>10</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <v>128</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="9">
         <v>1.1911341387557901</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="8">
         <v>0.57311999999999996</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="9">
         <v>1.1981628042221</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="8">
         <v>0.57020000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="8">
         <v>6</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="8">
         <v>10</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="8">
         <v>256</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="9">
         <v>1.36137994091033</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="8">
         <v>0.50697999999999999</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="9">
         <v>1.36346950931549</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="8">
         <v>0.50570000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="8">
         <v>7</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="8">
         <v>10</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="8">
         <v>512</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="9">
         <v>1.40363142837524</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="8">
         <v>0.49653999999999998</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="9">
         <v>1.4014196172714199</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="8">
         <v>0.49580000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="10">
         <v>8</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="B35" s="10">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>25</v>
+      </c>
+      <c r="D35" s="10">
+        <v>8</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1.3476154713058399</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.55718000000000001</v>
+      </c>
+      <c r="G35" s="11">
+        <v>1.37287567119598</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.54949999999999999</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="10">
         <v>9</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="B36" s="10">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10">
+        <v>25</v>
+      </c>
+      <c r="D36" s="10">
+        <v>16</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.77913448415756204</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.73326000000000002</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0.81818917951583803</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.72370000000000001</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="16">
         <v>10</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="B37" s="16">
+        <v>1</v>
+      </c>
+      <c r="C37" s="16">
+        <v>25</v>
+      </c>
+      <c r="D37" s="16">
+        <v>32</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0.74773628704071005</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0.74229999999999996</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0.80021947975158603</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0.72989999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>11</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10">
+        <v>25</v>
+      </c>
+      <c r="D38" s="10">
+        <v>64</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0.79454703044891295</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0.72250000000000003</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0.83665319328308096</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.70889999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>12</v>
+      </c>
+      <c r="B39" s="10">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10">
+        <v>25</v>
+      </c>
+      <c r="D39" s="10">
+        <v>128</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.90041496471405003</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0.68535999999999997</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0.93778119144439698</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0.67369999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>13</v>
+      </c>
+      <c r="B40" s="10">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10">
+        <v>25</v>
+      </c>
+      <c r="D40" s="10">
+        <v>256</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1.02020156860351</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.64514000000000005</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1.03773349990844</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0.63770000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>14</v>
+      </c>
+      <c r="B41" s="14">
+        <v>1</v>
+      </c>
+      <c r="C41" s="14">
+        <v>50</v>
+      </c>
+      <c r="D41" s="14">
+        <v>8</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1.9314643519592201</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0.31888</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1.9267433002471901</v>
+      </c>
+      <c r="H41" s="14">
+        <v>0.32029999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
+        <v>15</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1</v>
+      </c>
+      <c r="C42" s="14">
+        <v>50</v>
+      </c>
+      <c r="D42" s="14">
+        <v>16</v>
+      </c>
+      <c r="E42" s="15">
+        <v>1.0252683387756301</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0.67208000000000001</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1.0627156167984</v>
+      </c>
+      <c r="H42" s="14">
+        <v>0.65680000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>16</v>
+      </c>
+      <c r="B43" s="14">
+        <v>1</v>
+      </c>
+      <c r="C43" s="14">
+        <v>50</v>
+      </c>
+      <c r="D43" s="14">
+        <v>32</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0.72191820131301798</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0.75668000000000002</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0.79121629667282101</v>
+      </c>
+      <c r="H43" s="14">
+        <v>0.73650000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
+        <v>17</v>
+      </c>
+      <c r="B44" s="16">
+        <v>1</v>
+      </c>
+      <c r="C44" s="16">
+        <v>50</v>
+      </c>
+      <c r="D44" s="16">
+        <v>64</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0.62762843156814496</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0.78291999999999995</v>
+      </c>
+      <c r="G44" s="17">
+        <v>0.67783840923309302</v>
+      </c>
+      <c r="H44" s="16">
+        <v>0.76990000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
+        <v>18</v>
+      </c>
+      <c r="B45" s="14">
+        <v>1</v>
+      </c>
+      <c r="C45" s="14">
+        <v>50</v>
+      </c>
+      <c r="D45" s="14">
+        <v>128</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0.67006995548248205</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0.76507999999999998</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0.72957070226669296</v>
+      </c>
+      <c r="H45" s="14">
+        <v>0.74839999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
+        <v>19</v>
+      </c>
+      <c r="B46" s="14">
+        <v>1</v>
+      </c>
+      <c r="C46" s="14">
+        <v>50</v>
+      </c>
+      <c r="D46" s="14">
+        <v>256</v>
+      </c>
+      <c r="E46" s="15">
+        <v>0.80518990093231202</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0.71787999999999996</v>
+      </c>
+      <c r="G46" s="15">
+        <v>0.85364458875656102</v>
+      </c>
+      <c r="H46" s="14">
+        <v>0.70109999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="14">
+        <v>20</v>
+      </c>
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="14">
+        <v>75</v>
+      </c>
+      <c r="D47" s="14">
+        <v>32</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0.62526527651786801</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0.78927999999999998</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0.69266461553573599</v>
+      </c>
+      <c r="H47" s="14">
+        <v>0.76849999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
+        <v>21</v>
+      </c>
+      <c r="B48" s="16">
+        <v>1</v>
+      </c>
+      <c r="C48" s="16">
+        <v>75</v>
+      </c>
+      <c r="D48" s="16">
+        <v>64</v>
+      </c>
+      <c r="E48" s="17">
+        <v>0.55806922809600801</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="G48" s="17">
+        <v>0.64098626508712697</v>
+      </c>
+      <c r="H48" s="16">
+        <v>0.78520000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
+        <v>22</v>
+      </c>
+      <c r="B49" s="21">
+        <v>1</v>
+      </c>
+      <c r="C49" s="21">
+        <v>75</v>
+      </c>
+      <c r="D49" s="21">
+        <v>128</v>
+      </c>
+      <c r="E49" s="22">
+        <v>0.54217529290199196</v>
+      </c>
+      <c r="F49" s="23">
+        <v>0.81066000000000005</v>
+      </c>
+      <c r="G49" s="22">
+        <v>0.63332970089912399</v>
+      </c>
+      <c r="H49" s="21">
+        <v>0.78110000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>23</v>
+      </c>
+      <c r="B50" s="12">
+        <v>1</v>
+      </c>
+      <c r="C50" s="12">
+        <v>75</v>
+      </c>
+      <c r="D50" s="12">
+        <v>256</v>
+      </c>
+      <c r="E50" s="13">
+        <v>0.67647792034149101</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0.76146000000000003</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0.74497594184875404</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0.74080000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="19">
+        <v>24</v>
+      </c>
+      <c r="B51" s="19">
+        <v>1</v>
+      </c>
+      <c r="C51" s="19">
+        <v>100</v>
+      </c>
+      <c r="D51" s="19">
+        <v>32</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0.70730096406936604</v>
+      </c>
+      <c r="F51" s="19">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="G51" s="20">
+        <v>0.77085253992080605</v>
+      </c>
+      <c r="H51" s="19">
+        <v>0.74329999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="19">
+        <v>25</v>
+      </c>
+      <c r="B52" s="19">
+        <v>1</v>
+      </c>
+      <c r="C52" s="19">
+        <v>100</v>
+      </c>
+      <c r="D52" s="19">
+        <v>64</v>
+      </c>
+      <c r="E52" s="20">
+        <v>0.54640158352851798</v>
+      </c>
+      <c r="F52" s="19">
+        <v>0.81372</v>
+      </c>
+      <c r="G52" s="20">
+        <v>0.63186736459731996</v>
+      </c>
+      <c r="H52" s="19">
+        <v>0.79020000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assignment 2/results.xlsx
+++ b/Assignment 2/results.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E187D2D-6E7E-40EC-9320-700BF308F4B1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5648B8A0-43FA-49D0-8D7A-27663BFBD2DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>Epoch</t>
   </si>
@@ -106,7 +112,112 @@
     <t>Test Accuracy</t>
   </si>
   <si>
-    <t>2,2,3,4,5,6,7</t>
+    <t>added dropout, accuracy decreased</t>
+  </si>
+  <si>
+    <t>8,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>9,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>added dropout (regularization) to first convolution layer, accuracy decreased</t>
+  </si>
+  <si>
+    <t>increased size of first conv2D, accuracy increased</t>
+  </si>
+  <si>
+    <t>increased size of first conv2D, accuracy stayed same</t>
+  </si>
+  <si>
+    <t>10,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>11,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>10,12,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>13,12,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>increased also second conv2D, accuracy increased merely 0.0025 in contrast to 32</t>
+  </si>
+  <si>
+    <t>decreased filter to 2,2 and accuracy increased only 0.0014 in contrast to 30</t>
+  </si>
+  <si>
+    <t>increasing first and second conv2D gives us a good result, accuracy increased by 0,0292</t>
+  </si>
+  <si>
+    <t>increasing first and second conv2D gives us a good result, accuracy increased</t>
+  </si>
+  <si>
+    <t>increased accuracy, looks promising</t>
+  </si>
+  <si>
+    <t>Learning rate 0,0005</t>
+  </si>
+  <si>
+    <t>increasing learning rate, leads to higher accuracy with smaller epoch</t>
+  </si>
+  <si>
+    <t>increasing learning rate, leads to higher accuracy</t>
+  </si>
+  <si>
+    <t>increased size of two conv2D to 64</t>
+  </si>
+  <si>
+    <t>increased size of two conv2D to 64, with filter 2,2 for first conv2D and dropout added</t>
+  </si>
+  <si>
+    <t>increased size of first conv2D to 64, with filter 2,2 and dropout added</t>
+  </si>
+  <si>
+    <t>increased size for first conv2D to 64, with filter 2,2</t>
+  </si>
+  <si>
+    <t>increased size of first conv2D to 64, with filter 3,3 and dropout added</t>
+  </si>
+  <si>
+    <t>14,14,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>increased conv2D size 64 and dropout decreased</t>
+  </si>
+  <si>
+    <t>dropout decreased</t>
+  </si>
+  <si>
+    <t>15,9,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>dropout increased -&gt; not good</t>
+  </si>
+  <si>
+    <t>increased dropout</t>
+  </si>
+  <si>
+    <t>17,16,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>increased size of two conv2D to 128</t>
+  </si>
+  <si>
+    <t>increased size of conv2D to 128 -&gt; got better than 64 size</t>
+  </si>
+  <si>
+    <t>increasedsize to 256</t>
+  </si>
+  <si>
+    <t>conv2D size 128</t>
+  </si>
+  <si>
+    <t>conv2D size 64</t>
+  </si>
+  <si>
+    <t>Filter Sizes</t>
   </si>
 </sst>
 </file>
@@ -115,10 +226,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +261,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,30 +289,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,13 +314,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -223,25 +348,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -353,7 +482,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$D$28:$D$34</c:f>
+              <c:f>Tabelle1!$D$40:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -383,7 +512,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$28:$F$34</c:f>
+              <c:f>Tabelle1!$F$40:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -435,7 +564,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$D$28:$D$34</c:f>
+              <c:f>Tabelle1!$D$40:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -465,7 +594,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$28:$H$34</c:f>
+              <c:f>Tabelle1!$H$40:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -813,6 +942,537 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Accuracy - 75 Epochs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Batch-Size=32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$I$31:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$59,Tabelle1!$H$85:$H$86)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.76849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77539999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-278A-4376-8289-F1F8EB447D3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Batch-Size=64</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$60,Tabelle1!$H$87,Tabelle1!$H$88)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81520000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-278A-4376-8289-F1F8EB447D3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Batch-Size=128</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$61,Tabelle1!$H$89,Tabelle1!$H$90)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81740000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-278A-4376-8289-F1F8EB447D3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1902854224"/>
+        <c:axId val="1902977296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1902854224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> of Filters</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1902977296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1902977296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1902854224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -912,7 +1572,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$D$35:$D$40</c:f>
+              <c:f>Tabelle1!$D$47:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -939,7 +1599,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$35:$F$40</c:f>
+              <c:f>Tabelle1!$F$47:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -988,7 +1648,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$D$35:$D$40</c:f>
+              <c:f>Tabelle1!$D$47:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1015,7 +1675,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$35:$H$40</c:f>
+              <c:f>Tabelle1!$H$47:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1452,7 +2112,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$D$41:$D$46</c:f>
+              <c:f>Tabelle1!$D$53:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1479,7 +2139,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$41:$F$46</c:f>
+              <c:f>Tabelle1!$F$53:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1528,7 +2188,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$D$41:$D$46</c:f>
+              <c:f>Tabelle1!$D$53:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1555,7 +2215,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$41:$H$46</c:f>
+              <c:f>Tabelle1!$H$53:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1992,7 +2652,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41)</c:f>
+              <c:f>(Tabelle1!$C$40,Tabelle1!$C$47,Tabelle1!$C$53)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2010,7 +2670,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Tabelle1!$H$28,Tabelle1!$H$35,Tabelle1!$H$41)</c:f>
+              <c:f>(Tabelle1!$H$40,Tabelle1!$H$47,Tabelle1!$H$53)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2407,7 +3067,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41)</c:f>
+              <c:f>(Tabelle1!$C$40,Tabelle1!$C$47,Tabelle1!$C$53)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2425,7 +3085,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Tabelle1!$H$29,Tabelle1!$H$36,Tabelle1!$H$42)</c:f>
+              <c:f>(Tabelle1!$H$41,Tabelle1!$H$48,Tabelle1!$H$54)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2819,7 +3479,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$47,Tabelle1!$C$51)</c:f>
+              <c:f>(Tabelle1!$C$40,Tabelle1!$C$47,Tabelle1!$C$53,Tabelle1!$C$59,Tabelle1!$C$63)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2843,7 +3503,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Tabelle1!$H$30,Tabelle1!$H$37,Tabelle1!$H$43,Tabelle1!$H$47,Tabelle1!$H$51)</c:f>
+              <c:f>(Tabelle1!$H$42,Tabelle1!$H$49,Tabelle1!$H$55,Tabelle1!$H$59,Tabelle1!$H$63)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3243,7 +3903,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$47,Tabelle1!$C$51)</c:f>
+              <c:f>(Tabelle1!$C$40,Tabelle1!$C$47,Tabelle1!$C$53,Tabelle1!$C$59,Tabelle1!$C$63)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3267,7 +3927,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Tabelle1!$H$31,Tabelle1!$H$38,Tabelle1!$H$44,Tabelle1!$H$48,Tabelle1!$H$52)</c:f>
+              <c:f>(Tabelle1!$H$43,Tabelle1!$H$50,Tabelle1!$H$56,Tabelle1!$H$60,Tabelle1!$H$64)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3670,7 +4330,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$48,Tabelle1!$C$51)</c:f>
+              <c:f>(Tabelle1!$C$40,Tabelle1!$C$47,Tabelle1!$C$53,Tabelle1!$C$60,Tabelle1!$C$63)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3694,7 +4354,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Tabelle1!$H$28,Tabelle1!$H$35,Tabelle1!$H$41)</c:f>
+              <c:f>(Tabelle1!$H$40,Tabelle1!$H$47,Tabelle1!$H$53)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3734,7 +4394,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$48,Tabelle1!$C$51)</c:f>
+              <c:f>(Tabelle1!$C$40,Tabelle1!$C$47,Tabelle1!$C$53,Tabelle1!$C$60,Tabelle1!$C$63)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3758,7 +4418,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Tabelle1!$H$29,Tabelle1!$H$36,Tabelle1!$H$42)</c:f>
+              <c:f>(Tabelle1!$H$41,Tabelle1!$H$48,Tabelle1!$H$54)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3798,7 +4458,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$48,Tabelle1!$C$51)</c:f>
+              <c:f>(Tabelle1!$C$40,Tabelle1!$C$47,Tabelle1!$C$53,Tabelle1!$C$60,Tabelle1!$C$63)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3822,7 +4482,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Tabelle1!$H$30,Tabelle1!$H$37,Tabelle1!$H$43,Tabelle1!$H$47,Tabelle1!$H$51)</c:f>
+              <c:f>(Tabelle1!$H$42,Tabelle1!$H$49,Tabelle1!$H$55,Tabelle1!$H$59,Tabelle1!$H$63)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3868,7 +4528,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$48,Tabelle1!$C$51)</c:f>
+              <c:f>(Tabelle1!$C$40,Tabelle1!$C$47,Tabelle1!$C$53,Tabelle1!$C$60,Tabelle1!$C$63)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3892,7 +4552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Tabelle1!$H$31,Tabelle1!$H$38,Tabelle1!$H$44,Tabelle1!$H$48,Tabelle1!$H$52)</c:f>
+              <c:f>(Tabelle1!$H$43,Tabelle1!$H$50,Tabelle1!$H$56,Tabelle1!$H$60,Tabelle1!$H$64)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3938,7 +4598,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Tabelle1!$C$28,Tabelle1!$C$35,Tabelle1!$C$41,Tabelle1!$C$48,Tabelle1!$C$51)</c:f>
+              <c:f>(Tabelle1!$C$40,Tabelle1!$C$47,Tabelle1!$C$53,Tabelle1!$C$60,Tabelle1!$C$63)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3962,10 +4622,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Tabelle1!$H$32,Tabelle1!$H$39,Tabelle1!$H$45,Tabelle1!$H$49)</c:f>
+              <c:f>(Tabelle1!$H$44,Tabelle1!$H$51,Tabelle1!$H$57,Tabelle1!$H$61,Tabelle1!$H$65)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.57020000000000004</c:v>
                 </c:pt>
@@ -3977,6 +4637,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.78110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4299,7 +4962,614 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> - 10 Epochs</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>batch-size=32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$I$31:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$42,Tabelle1!$H$74,Tabelle1!$H$82)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72640000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0142-4A32-AB72-D3DCDA199714}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>batch-size=64</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$I$31:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$43,Tabelle1!$H$75,Tabelle1!$H$83)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.61309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68689999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0142-4A32-AB72-D3DCDA199714}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>batch-size=128</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$I$31:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$H$44,Tabelle1!$H$76,Tabelle1!$H$84)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.57020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64270000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0142-4A32-AB72-D3DCDA199714}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1762737328"/>
+        <c:axId val="1560059104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1762737328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Number of Filters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560059104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1560059104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1762737328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4619,6 +5889,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5122,7 +6432,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5627,7 +6937,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6132,7 +7442,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6637,7 +7947,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7142,7 +8452,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7647,7 +8957,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8152,7 +9462,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8657,20 +9967,1030 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>845820</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>232504</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18493</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8697,16 +11017,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1226820</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>830580</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>217264</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>145245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8733,16 +11053,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>130005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>845820</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>232504</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>130005</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8769,16 +11089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>299595</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>67557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>967740</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>595660</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>67557</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8805,16 +11125,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19514</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>52317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>231015</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>52317</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8841,16 +11161,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65234</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>108631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276735</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>108631</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8877,16 +11197,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>574101</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>123871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1234440</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>249043</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>123871</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8913,16 +11233,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1206003</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>140041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>157974</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>52410</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8942,6 +11262,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>569406</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>138315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>442296</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>138315</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C55041-43DC-488F-97C0-A347758DE74F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1147187</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>77036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>56940</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8EC738-BE25-4B91-BAD4-EB2BDC8AE9EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9213,15 +11605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I52"/>
+  <dimension ref="A3:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
@@ -9229,950 +11621,2062 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>32</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>3.3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>32</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>3.3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>64</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>3.3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>64</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>3.3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>512</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>3.3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>3.3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <v>3.3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <v>3.3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>3.3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>3.3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>128</v>
+      </c>
+      <c r="D20">
+        <v>3.3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>128</v>
+      </c>
+      <c r="D21">
+        <v>3.3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="A23" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="I23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="J23" s="22"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="I24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="J24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="K24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E18">
+      <c r="I25">
         <v>100</v>
       </c>
-      <c r="F18">
+      <c r="J25">
         <v>32</v>
       </c>
-      <c r="G18" s="18">
+      <c r="K25" s="6">
         <v>0.69178166451454104</v>
       </c>
-      <c r="H18">
+      <c r="L25">
         <v>0.7772</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
         <v>2</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
+      <c r="B26" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>3</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>4</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
+        <v>7</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
+        <v>8</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="17">
+        <v>9</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
+        <v>10</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
+        <v>11</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A37" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B37" s="22"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I39" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
         <v>1</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B40" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C40" s="8">
         <v>10</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D40" s="8">
         <v>8</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E40" s="9">
         <v>1.0392768399810699</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F40" s="8">
         <v>0.65034000000000003</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G40" s="9">
         <v>1.0646022348403901</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H40" s="8">
         <v>0.64039999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
         <v>2</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B41" s="10">
         <v>1</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C41" s="10">
         <v>10</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D41" s="10">
         <v>16</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E41" s="11">
         <v>0.91937890407562195</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F41" s="10">
         <v>0.68533999999999995</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G41" s="11">
         <v>0.95473508434295595</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H41" s="10">
         <v>0.67549999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
         <v>3</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C42" s="8">
         <v>10</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D42" s="8">
         <v>32</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E42" s="9">
         <v>0.99621965934753398</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F42" s="8">
         <v>0.64954000000000001</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G42" s="9">
         <v>1.01435149230957</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H42" s="8">
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
         <v>4</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C43" s="8">
         <v>10</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D43" s="8">
         <v>64</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E43" s="9">
         <v>1.0970533450317299</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F43" s="8">
         <v>0.62119999999999997</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G43" s="9">
         <v>1.1071527214050201</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H43" s="8">
         <v>0.61309999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
         <v>5</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B44" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C44" s="8">
         <v>10</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D44" s="8">
         <v>128</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E44" s="9">
         <v>1.1911341387557901</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F44" s="8">
         <v>0.57311999999999996</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G44" s="9">
         <v>1.1981628042221</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H44" s="8">
         <v>0.57020000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
         <v>6</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C45" s="8">
         <v>10</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D45" s="8">
         <v>256</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E45" s="9">
         <v>1.36137994091033</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F45" s="8">
         <v>0.50697999999999999</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G45" s="9">
         <v>1.36346950931549</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H45" s="8">
         <v>0.50570000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
         <v>7</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C46" s="8">
         <v>10</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D46" s="8">
         <v>512</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E46" s="9">
         <v>1.40363142837524</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F46" s="8">
         <v>0.49653999999999998</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G46" s="9">
         <v>1.4014196172714199</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H46" s="8">
         <v>0.49580000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
         <v>8</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B47" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C47" s="8">
         <v>25</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D47" s="8">
         <v>8</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E47" s="9">
         <v>1.3476154713058399</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F47" s="8">
         <v>0.55718000000000001</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G47" s="9">
         <v>1.37287567119598</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H47" s="8">
         <v>0.54949999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
         <v>9</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B48" s="8">
         <v>1</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C48" s="8">
         <v>25</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D48" s="8">
         <v>16</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E48" s="9">
         <v>0.77913448415756204</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F48" s="8">
         <v>0.73326000000000002</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G48" s="9">
         <v>0.81818917951583803</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H48" s="8">
         <v>0.72370000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
-        <v>10</v>
-      </c>
-      <c r="B37" s="16">
-        <v>1</v>
-      </c>
-      <c r="C37" s="16">
-        <v>25</v>
-      </c>
-      <c r="D37" s="16">
-        <v>32</v>
-      </c>
-      <c r="E37" s="17">
-        <v>0.74773628704071005</v>
-      </c>
-      <c r="F37" s="16">
-        <v>0.74229999999999996</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0.80021947975158603</v>
-      </c>
-      <c r="H37" s="16">
-        <v>0.72989999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
-        <v>11</v>
-      </c>
-      <c r="B38" s="10">
-        <v>1</v>
-      </c>
-      <c r="C38" s="10">
-        <v>25</v>
-      </c>
-      <c r="D38" s="10">
-        <v>64</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0.79454703044891295</v>
-      </c>
-      <c r="F38" s="10">
-        <v>0.72250000000000003</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0.83665319328308096</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0.70889999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
-        <v>12</v>
-      </c>
-      <c r="B39" s="10">
-        <v>1</v>
-      </c>
-      <c r="C39" s="10">
-        <v>25</v>
-      </c>
-      <c r="D39" s="10">
-        <v>128</v>
-      </c>
-      <c r="E39" s="11">
-        <v>0.90041496471405003</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0.68535999999999997</v>
-      </c>
-      <c r="G39" s="11">
-        <v>0.93778119144439698</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0.67369999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
-        <v>13</v>
-      </c>
-      <c r="B40" s="10">
-        <v>1</v>
-      </c>
-      <c r="C40" s="10">
-        <v>25</v>
-      </c>
-      <c r="D40" s="10">
-        <v>256</v>
-      </c>
-      <c r="E40" s="11">
-        <v>1.02020156860351</v>
-      </c>
-      <c r="F40" s="10">
-        <v>0.64514000000000005</v>
-      </c>
-      <c r="G40" s="11">
-        <v>1.03773349990844</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0.63770000000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
-        <v>14</v>
-      </c>
-      <c r="B41" s="14">
-        <v>1</v>
-      </c>
-      <c r="C41" s="14">
-        <v>50</v>
-      </c>
-      <c r="D41" s="14">
-        <v>8</v>
-      </c>
-      <c r="E41" s="15">
-        <v>1.9314643519592201</v>
-      </c>
-      <c r="F41" s="14">
-        <v>0.31888</v>
-      </c>
-      <c r="G41" s="15">
-        <v>1.9267433002471901</v>
-      </c>
-      <c r="H41" s="14">
-        <v>0.32029999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
-        <v>15</v>
-      </c>
-      <c r="B42" s="14">
-        <v>1</v>
-      </c>
-      <c r="C42" s="14">
-        <v>50</v>
-      </c>
-      <c r="D42" s="14">
-        <v>16</v>
-      </c>
-      <c r="E42" s="15">
-        <v>1.0252683387756301</v>
-      </c>
-      <c r="F42" s="14">
-        <v>0.67208000000000001</v>
-      </c>
-      <c r="G42" s="15">
-        <v>1.0627156167984</v>
-      </c>
-      <c r="H42" s="14">
-        <v>0.65680000000000005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
-        <v>16</v>
-      </c>
-      <c r="B43" s="14">
-        <v>1</v>
-      </c>
-      <c r="C43" s="14">
-        <v>50</v>
-      </c>
-      <c r="D43" s="14">
-        <v>32</v>
-      </c>
-      <c r="E43" s="15">
-        <v>0.72191820131301798</v>
-      </c>
-      <c r="F43" s="14">
-        <v>0.75668000000000002</v>
-      </c>
-      <c r="G43" s="15">
-        <v>0.79121629667282101</v>
-      </c>
-      <c r="H43" s="14">
-        <v>0.73650000000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
-        <v>17</v>
-      </c>
-      <c r="B44" s="16">
-        <v>1</v>
-      </c>
-      <c r="C44" s="16">
-        <v>50</v>
-      </c>
-      <c r="D44" s="16">
-        <v>64</v>
-      </c>
-      <c r="E44" s="17">
-        <v>0.62762843156814496</v>
-      </c>
-      <c r="F44" s="16">
-        <v>0.78291999999999995</v>
-      </c>
-      <c r="G44" s="17">
-        <v>0.67783840923309302</v>
-      </c>
-      <c r="H44" s="16">
-        <v>0.76990000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
-        <v>18</v>
-      </c>
-      <c r="B45" s="14">
-        <v>1</v>
-      </c>
-      <c r="C45" s="14">
-        <v>50</v>
-      </c>
-      <c r="D45" s="14">
-        <v>128</v>
-      </c>
-      <c r="E45" s="15">
-        <v>0.67006995548248205</v>
-      </c>
-      <c r="F45" s="14">
-        <v>0.76507999999999998</v>
-      </c>
-      <c r="G45" s="15">
-        <v>0.72957070226669296</v>
-      </c>
-      <c r="H45" s="14">
-        <v>0.74839999999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
-        <v>19</v>
-      </c>
-      <c r="B46" s="14">
-        <v>1</v>
-      </c>
-      <c r="C46" s="14">
-        <v>50</v>
-      </c>
-      <c r="D46" s="14">
-        <v>256</v>
-      </c>
-      <c r="E46" s="15">
-        <v>0.80518990093231202</v>
-      </c>
-      <c r="F46" s="14">
-        <v>0.71787999999999996</v>
-      </c>
-      <c r="G46" s="15">
-        <v>0.85364458875656102</v>
-      </c>
-      <c r="H46" s="14">
-        <v>0.70109999999999995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="14">
-        <v>20</v>
-      </c>
-      <c r="B47" s="14">
-        <v>1</v>
-      </c>
-      <c r="C47" s="14">
-        <v>75</v>
-      </c>
-      <c r="D47" s="14">
-        <v>32</v>
-      </c>
-      <c r="E47" s="15">
-        <v>0.62526527651786801</v>
-      </c>
-      <c r="F47" s="14">
-        <v>0.78927999999999998</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0.69266461553573599</v>
-      </c>
-      <c r="H47" s="14">
-        <v>0.76849999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
-        <v>21</v>
-      </c>
-      <c r="B48" s="16">
-        <v>1</v>
-      </c>
-      <c r="C48" s="16">
-        <v>75</v>
-      </c>
-      <c r="D48" s="16">
-        <v>64</v>
-      </c>
-      <c r="E48" s="17">
-        <v>0.55806922809600801</v>
-      </c>
-      <c r="F48" s="16">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="G48" s="17">
-        <v>0.64098626508712697</v>
-      </c>
-      <c r="H48" s="16">
-        <v>0.78520000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="21">
-        <v>22</v>
-      </c>
-      <c r="B49" s="21">
+      <c r="A49" s="10">
+        <v>10</v>
+      </c>
+      <c r="B49" s="10">
         <v>1</v>
       </c>
-      <c r="C49" s="21">
-        <v>75</v>
-      </c>
-      <c r="D49" s="21">
-        <v>128</v>
-      </c>
-      <c r="E49" s="22">
-        <v>0.54217529290199196</v>
-      </c>
-      <c r="F49" s="23">
-        <v>0.81066000000000005</v>
-      </c>
-      <c r="G49" s="22">
-        <v>0.63332970089912399</v>
-      </c>
-      <c r="H49" s="21">
-        <v>0.78110000000000002</v>
+      <c r="C49" s="10">
+        <v>25</v>
+      </c>
+      <c r="D49" s="10">
+        <v>32</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.74773628704071005</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0.74229999999999996</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0.80021947975158603</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0.72989999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
-        <v>23</v>
-      </c>
-      <c r="B50" s="12">
+      <c r="A50" s="8">
+        <v>11</v>
+      </c>
+      <c r="B50" s="8">
         <v>1</v>
       </c>
-      <c r="C50" s="12">
-        <v>75</v>
-      </c>
-      <c r="D50" s="12">
-        <v>256</v>
-      </c>
-      <c r="E50" s="13">
-        <v>0.67647792034149101</v>
-      </c>
-      <c r="F50" s="12">
-        <v>0.76146000000000003</v>
-      </c>
-      <c r="G50" s="13">
-        <v>0.74497594184875404</v>
-      </c>
-      <c r="H50" s="12">
-        <v>0.74080000000000001</v>
+      <c r="C50" s="8">
+        <v>25</v>
+      </c>
+      <c r="D50" s="8">
+        <v>64</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.79454703044891295</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.72250000000000003</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.83665319328308096</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0.70889999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="19">
-        <v>24</v>
-      </c>
-      <c r="B51" s="19">
+      <c r="A51" s="8">
+        <v>12</v>
+      </c>
+      <c r="B51" s="8">
         <v>1</v>
       </c>
-      <c r="C51" s="19">
-        <v>100</v>
-      </c>
-      <c r="D51" s="19">
-        <v>32</v>
-      </c>
-      <c r="E51" s="20">
-        <v>0.70730096406936604</v>
-      </c>
-      <c r="F51" s="19">
-        <v>0.75860000000000005</v>
-      </c>
-      <c r="G51" s="20">
-        <v>0.77085253992080605</v>
-      </c>
-      <c r="H51" s="19">
-        <v>0.74329999999999996</v>
+      <c r="C51" s="8">
+        <v>25</v>
+      </c>
+      <c r="D51" s="8">
+        <v>128</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.90041496471405003</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.68535999999999997</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.93778119144439698</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0.67369999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="19">
+      <c r="A52" s="8">
+        <v>13</v>
+      </c>
+      <c r="B52" s="8">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8">
         <v>25</v>
       </c>
-      <c r="B52" s="19">
+      <c r="D52" s="8">
+        <v>256</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1.02020156860351</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.64514000000000005</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1.03773349990844</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0.63770000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>14</v>
+      </c>
+      <c r="B53" s="8">
         <v>1</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C53" s="8">
+        <v>50</v>
+      </c>
+      <c r="D53" s="8">
+        <v>8</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1.9314643519592201</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.31888</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1.9267433002471901</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0.32029999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>15</v>
+      </c>
+      <c r="B54" s="8">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8">
+        <v>50</v>
+      </c>
+      <c r="D54" s="8">
+        <v>16</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1.0252683387756301</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0.67208000000000001</v>
+      </c>
+      <c r="G54" s="9">
+        <v>1.0627156167984</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0.65680000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>16</v>
+      </c>
+      <c r="B55" s="8">
+        <v>1</v>
+      </c>
+      <c r="C55" s="8">
+        <v>50</v>
+      </c>
+      <c r="D55" s="8">
+        <v>32</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0.72191820131301798</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.75668000000000002</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0.79121629667282101</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0.73650000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>17</v>
+      </c>
+      <c r="B56" s="10">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10">
+        <v>50</v>
+      </c>
+      <c r="D56" s="10">
+        <v>64</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0.62762843156814496</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0.78291999999999995</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0.67783840923309302</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0.76990000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>18</v>
+      </c>
+      <c r="B57" s="8">
+        <v>1</v>
+      </c>
+      <c r="C57" s="8">
+        <v>50</v>
+      </c>
+      <c r="D57" s="8">
+        <v>128</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0.67006995548248205</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0.76507999999999998</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0.72957070226669296</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.74839999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>19</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8">
+        <v>50</v>
+      </c>
+      <c r="D58" s="8">
+        <v>256</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0.80518990093231202</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0.71787999999999996</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0.85364458875656102</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0.70109999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>20</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8">
+        <v>75</v>
+      </c>
+      <c r="D59" s="8">
+        <v>32</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0.62526527651786801</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0.78927999999999998</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0.69266461553573599</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0.76849999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>21</v>
+      </c>
+      <c r="B60" s="10">
+        <v>1</v>
+      </c>
+      <c r="C60" s="10">
+        <v>75</v>
+      </c>
+      <c r="D60" s="10">
+        <v>64</v>
+      </c>
+      <c r="E60" s="11">
+        <v>0.55806922809600801</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0.64098626508712697</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0.78520000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>22</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="12">
+        <v>75</v>
+      </c>
+      <c r="D61" s="12">
+        <v>128</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0.54217529290199196</v>
+      </c>
+      <c r="F61" s="14">
+        <v>0.81066000000000005</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0.63332970089912399</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0.78110000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>23</v>
+      </c>
+      <c r="B62" s="8">
+        <v>1</v>
+      </c>
+      <c r="C62" s="8">
+        <v>75</v>
+      </c>
+      <c r="D62" s="8">
+        <v>256</v>
+      </c>
+      <c r="E62" s="9">
+        <v>0.67647792034149101</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0.76146000000000003</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0.74497594184875404</v>
+      </c>
+      <c r="H62" s="8">
+        <v>0.74080000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>24</v>
+      </c>
+      <c r="B63" s="8">
+        <v>1</v>
+      </c>
+      <c r="C63" s="8">
         <v>100</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D63" s="8">
+        <v>32</v>
+      </c>
+      <c r="E63" s="9">
+        <v>0.70730096406936604</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.77085253992080605</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0.74329999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>25</v>
+      </c>
+      <c r="B64" s="10">
+        <v>1</v>
+      </c>
+      <c r="C64" s="10">
+        <v>100</v>
+      </c>
+      <c r="D64" s="10">
         <v>64</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E64" s="11">
         <v>0.54640158352851798</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F64" s="10">
         <v>0.81372</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G64" s="11">
         <v>0.63186736459731996</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H64" s="10">
         <v>0.79020000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>26</v>
+      </c>
+      <c r="B65" s="8">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8">
+        <v>100</v>
+      </c>
+      <c r="D65" s="8">
+        <v>128</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0.55168425781249997</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0.81203999999999998</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0.65767523832321095</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0.7782</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="18">
+        <v>27</v>
+      </c>
+      <c r="B66" s="18">
+        <v>2</v>
+      </c>
+      <c r="C66" s="18">
+        <v>10</v>
+      </c>
+      <c r="D66" s="18">
+        <v>32</v>
+      </c>
+      <c r="E66" s="19">
+        <v>1.0369805596160799</v>
+      </c>
+      <c r="F66" s="18">
+        <v>0.63463999999999998</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1.0572195840835501</v>
+      </c>
+      <c r="H66" s="18">
+        <v>0.62270000000000003</v>
+      </c>
+      <c r="I66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="18">
+        <v>28</v>
+      </c>
+      <c r="B67" s="18">
+        <v>2</v>
+      </c>
+      <c r="C67" s="18">
+        <v>10</v>
+      </c>
+      <c r="D67" s="18">
+        <v>64</v>
+      </c>
+      <c r="E67" s="19">
+        <v>1.10969723262786</v>
+      </c>
+      <c r="F67" s="18">
+        <v>0.61009999999999998</v>
+      </c>
+      <c r="G67" s="19">
+        <v>1.1224286113738999</v>
+      </c>
+      <c r="H67" s="18">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="I67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="18">
+        <v>29</v>
+      </c>
+      <c r="B68" s="18">
+        <v>2</v>
+      </c>
+      <c r="C68" s="18">
+        <v>10</v>
+      </c>
+      <c r="D68" s="18">
+        <v>128</v>
+      </c>
+      <c r="E68" s="19">
+        <v>1.2655805207061701</v>
+      </c>
+      <c r="F68" s="18">
+        <v>0.56077999999999995</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1.2702608221053999</v>
+      </c>
+      <c r="H68" s="18">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="I68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>30</v>
+      </c>
+      <c r="B69" s="8">
+        <v>3</v>
+      </c>
+      <c r="C69" s="8">
+        <v>10</v>
+      </c>
+      <c r="D69" s="8">
+        <v>32</v>
+      </c>
+      <c r="E69" s="16">
+        <v>0.96572705982208196</v>
+      </c>
+      <c r="F69" s="15">
+        <v>0.65859999999999996</v>
+      </c>
+      <c r="G69" s="16">
+        <v>0.98747276115417404</v>
+      </c>
+      <c r="H69" s="15">
+        <v>0.6522</v>
+      </c>
+      <c r="I69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>31</v>
+      </c>
+      <c r="B70" s="8">
+        <v>3</v>
+      </c>
+      <c r="C70" s="8">
+        <v>10</v>
+      </c>
+      <c r="D70" s="8">
+        <v>64</v>
+      </c>
+      <c r="E70" s="16">
+        <v>1.0450997106170601</v>
+      </c>
+      <c r="F70" s="15">
+        <v>0.63314000000000004</v>
+      </c>
+      <c r="G70" s="16">
+        <v>1.0617554874420101</v>
+      </c>
+      <c r="H70" s="15">
+        <v>0.626</v>
+      </c>
+      <c r="I70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>31</v>
+      </c>
+      <c r="B71" s="8">
+        <v>3</v>
+      </c>
+      <c r="C71" s="8">
+        <v>10</v>
+      </c>
+      <c r="D71" s="8">
+        <v>128</v>
+      </c>
+      <c r="E71" s="16">
+        <v>1.24304670280456</v>
+      </c>
+      <c r="F71" s="15">
+        <v>0.55947999999999998</v>
+      </c>
+      <c r="G71" s="16">
+        <v>1.25144801139831</v>
+      </c>
+      <c r="H71" s="15">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>32</v>
+      </c>
+      <c r="B72" s="8">
+        <v>4</v>
+      </c>
+      <c r="C72" s="8">
+        <v>10</v>
+      </c>
+      <c r="D72" s="8">
+        <v>32</v>
+      </c>
+      <c r="E72" s="16">
+        <v>0.95255954772949203</v>
+      </c>
+      <c r="F72" s="15">
+        <v>0.66269999999999996</v>
+      </c>
+      <c r="G72" s="16">
+        <v>0.97776849431991497</v>
+      </c>
+      <c r="H72" s="15">
+        <v>0.65359999999999996</v>
+      </c>
+      <c r="I72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>33</v>
+      </c>
+      <c r="B73" s="8">
+        <v>6</v>
+      </c>
+      <c r="C73" s="8">
+        <v>10</v>
+      </c>
+      <c r="D73" s="8">
+        <v>32</v>
+      </c>
+      <c r="E73" s="16">
+        <v>0.956997466049194</v>
+      </c>
+      <c r="F73" s="15">
+        <v>0.66371999999999998</v>
+      </c>
+      <c r="G73" s="16">
+        <v>0.98324478073120103</v>
+      </c>
+      <c r="H73" s="15">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="I73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="20">
+        <v>33</v>
+      </c>
+      <c r="B74" s="20">
+        <v>7</v>
+      </c>
+      <c r="C74" s="20">
+        <v>10</v>
+      </c>
+      <c r="D74" s="20">
+        <v>32</v>
+      </c>
+      <c r="E74" s="21">
+        <v>0.85745378835678099</v>
+      </c>
+      <c r="F74" s="20">
+        <v>0.69877999999999996</v>
+      </c>
+      <c r="G74" s="21">
+        <v>0.88375284099578799</v>
+      </c>
+      <c r="H74" s="20">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="I74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="20">
+        <v>34</v>
+      </c>
+      <c r="B75" s="20">
+        <v>7</v>
+      </c>
+      <c r="C75" s="20">
+        <v>10</v>
+      </c>
+      <c r="D75" s="20">
+        <v>64</v>
+      </c>
+      <c r="E75" s="21">
+        <v>0.93930389417648297</v>
+      </c>
+      <c r="F75" s="20">
+        <v>0.66691999999999996</v>
+      </c>
+      <c r="G75" s="21">
+        <v>0.96272808017730704</v>
+      </c>
+      <c r="H75" s="20">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="I75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="20">
+        <v>35</v>
+      </c>
+      <c r="B76" s="20">
+        <v>7</v>
+      </c>
+      <c r="C76" s="20">
+        <v>10</v>
+      </c>
+      <c r="D76" s="20">
+        <v>128</v>
+      </c>
+      <c r="E76" s="21">
+        <v>1.1543543312072699</v>
+      </c>
+      <c r="F76" s="20">
+        <v>0.58931999999999995</v>
+      </c>
+      <c r="G76" s="21">
+        <v>1.1594945287704399</v>
+      </c>
+      <c r="H76" s="20">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="I76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>35</v>
+      </c>
+      <c r="B77" s="8">
+        <v>7</v>
+      </c>
+      <c r="C77" s="8">
+        <v>75</v>
+      </c>
+      <c r="D77" s="8">
+        <v>128</v>
+      </c>
+      <c r="E77" s="16">
+        <v>0.51795699047088595</v>
+      </c>
+      <c r="F77" s="15">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="G77" s="16">
+        <v>0.61079546971321097</v>
+      </c>
+      <c r="H77" s="15">
+        <v>0.79149999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>35</v>
+      </c>
+      <c r="B78" s="8">
+        <v>8</v>
+      </c>
+      <c r="C78" s="8">
+        <v>10</v>
+      </c>
+      <c r="D78" s="8">
+        <v>64</v>
+      </c>
+      <c r="E78" s="16">
+        <v>0.64727550721168503</v>
+      </c>
+      <c r="F78" s="15">
+        <v>0.77502000000000004</v>
+      </c>
+      <c r="G78" s="16">
+        <v>0.70110767869949298</v>
+      </c>
+      <c r="H78" s="15">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="I78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="20">
+        <v>35</v>
+      </c>
+      <c r="B79" s="20">
+        <v>8</v>
+      </c>
+      <c r="C79" s="20">
+        <v>75</v>
+      </c>
+      <c r="D79" s="20">
+        <v>128</v>
+      </c>
+      <c r="E79" s="21">
+        <v>0.46483532215595202</v>
+      </c>
+      <c r="F79" s="20">
+        <v>0.84333999999999998</v>
+      </c>
+      <c r="G79" s="21">
+        <v>0.60114268317222597</v>
+      </c>
+      <c r="H79" s="20">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="20">
+        <v>36</v>
+      </c>
+      <c r="B80" s="20">
+        <v>9</v>
+      </c>
+      <c r="C80" s="20">
+        <v>10</v>
+      </c>
+      <c r="D80" s="20">
+        <v>64</v>
+      </c>
+      <c r="E80" s="21">
+        <v>0.93895436174392699</v>
+      </c>
+      <c r="F80" s="20">
+        <v>0.66961999999999999</v>
+      </c>
+      <c r="G80" s="21">
+        <v>0.96413376874923695</v>
+      </c>
+      <c r="H80" s="20">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="I80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>37</v>
+      </c>
+      <c r="B81" s="8">
+        <v>10</v>
+      </c>
+      <c r="C81" s="8">
+        <v>10</v>
+      </c>
+      <c r="D81" s="8">
+        <v>64</v>
+      </c>
+      <c r="E81" s="16">
+        <v>1.05460732368469</v>
+      </c>
+      <c r="F81" s="15">
+        <v>0.62609999999999999</v>
+      </c>
+      <c r="G81" s="16">
+        <v>1.0694082788467401</v>
+      </c>
+      <c r="H81" s="15">
+        <v>0.62270000000000003</v>
+      </c>
+      <c r="I81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>38</v>
+      </c>
+      <c r="B82" s="8">
+        <v>11</v>
+      </c>
+      <c r="C82" s="8">
+        <v>10</v>
+      </c>
+      <c r="D82" s="8">
+        <v>32</v>
+      </c>
+      <c r="E82" s="16">
+        <v>0.76454147300720199</v>
+      </c>
+      <c r="F82" s="15">
+        <v>0.73197999999999996</v>
+      </c>
+      <c r="G82" s="16">
+        <v>0.79521347427368105</v>
+      </c>
+      <c r="H82" s="15">
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="I82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>39</v>
+      </c>
+      <c r="B83" s="8">
+        <v>11</v>
+      </c>
+      <c r="C83" s="8">
+        <v>10</v>
+      </c>
+      <c r="D83" s="8">
+        <v>64</v>
+      </c>
+      <c r="E83" s="16">
+        <v>0.869522058048248</v>
+      </c>
+      <c r="F83" s="15">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="G83" s="16">
+        <v>0.89454943218231198</v>
+      </c>
+      <c r="H83" s="15">
+        <v>0.68689999999999996</v>
+      </c>
+      <c r="I83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>40</v>
+      </c>
+      <c r="B84" s="8">
+        <v>11</v>
+      </c>
+      <c r="C84" s="8">
+        <v>10</v>
+      </c>
+      <c r="D84" s="8">
+        <v>128</v>
+      </c>
+      <c r="E84" s="16">
+        <v>1.0042202778244</v>
+      </c>
+      <c r="F84" s="15">
+        <v>0.64748000000000006</v>
+      </c>
+      <c r="G84" s="16">
+        <v>1.01441141376495</v>
+      </c>
+      <c r="H84" s="15">
+        <v>0.64270000000000005</v>
+      </c>
+      <c r="I84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="15">
+        <v>41</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15">
+        <v>75</v>
+      </c>
+      <c r="D85" s="15">
+        <v>32</v>
+      </c>
+      <c r="E85" s="16">
+        <v>0.559428295102119</v>
+      </c>
+      <c r="F85" s="15">
+        <v>0.81364000000000003</v>
+      </c>
+      <c r="G85" s="16">
+        <v>0.63848475098609903</v>
+      </c>
+      <c r="H85" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="I85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="15">
+        <v>42</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15">
+        <v>75</v>
+      </c>
+      <c r="D86" s="15">
+        <v>32</v>
+      </c>
+      <c r="E86" s="16">
+        <v>0.62593481430053699</v>
+      </c>
+      <c r="F86" s="15">
+        <v>0.79883999999999999</v>
+      </c>
+      <c r="G86" s="16">
+        <v>0.71815722141265803</v>
+      </c>
+      <c r="H86" s="15">
+        <v>0.77539999999999998</v>
+      </c>
+      <c r="I86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="15">
+        <v>43</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15">
+        <v>75</v>
+      </c>
+      <c r="D87" s="15">
+        <v>64</v>
+      </c>
+      <c r="E87" s="16">
+        <v>0.482466498126983</v>
+      </c>
+      <c r="F87" s="15">
+        <v>0.83764000000000005</v>
+      </c>
+      <c r="G87" s="16">
+        <v>0.57236019926071102</v>
+      </c>
+      <c r="H87" s="15">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="I87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="15">
+        <v>44</v>
+      </c>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15">
+        <v>75</v>
+      </c>
+      <c r="D88" s="15">
+        <v>64</v>
+      </c>
+      <c r="E88" s="16">
+        <v>0.45791548806190402</v>
+      </c>
+      <c r="F88" s="15">
+        <v>0.84611999999999998</v>
+      </c>
+      <c r="G88" s="16">
+        <v>0.56126703462600702</v>
+      </c>
+      <c r="H88" s="15">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="I88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="15">
+        <v>45</v>
+      </c>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15">
+        <v>75</v>
+      </c>
+      <c r="D89" s="15">
+        <v>128</v>
+      </c>
+      <c r="E89" s="16">
+        <v>0.47491916605949402</v>
+      </c>
+      <c r="F89" s="15">
+        <v>0.83767999999999998</v>
+      </c>
+      <c r="G89" s="16">
+        <v>0.57232334218025205</v>
+      </c>
+      <c r="H89" s="15">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="I89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="15">
+        <v>46</v>
+      </c>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15">
+        <v>75</v>
+      </c>
+      <c r="D90" s="15">
+        <v>128</v>
+      </c>
+      <c r="E90" s="16">
+        <v>0.45087037704467697</v>
+      </c>
+      <c r="F90" s="15">
+        <v>0.85075999999999996</v>
+      </c>
+      <c r="G90" s="16">
+        <v>0.54802857508659297</v>
+      </c>
+      <c r="H90" s="15">
+        <v>0.81740000000000002</v>
+      </c>
+      <c r="I90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
+        <v>47</v>
+      </c>
+      <c r="B92" s="8">
+        <v>11</v>
+      </c>
+      <c r="C92" s="8">
+        <v>10</v>
+      </c>
+      <c r="D92" s="8">
+        <v>32</v>
+      </c>
+      <c r="E92" s="16">
+        <v>0.74537437198638901</v>
+      </c>
+      <c r="F92" s="15">
+        <v>0.73973999999999995</v>
+      </c>
+      <c r="G92" s="16">
+        <v>0.79009406347274702</v>
+      </c>
+      <c r="H92" s="15">
+        <v>0.72389999999999999</v>
+      </c>
+      <c r="I92" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
